--- a/doc/XXL-HEX架构图.xlsx
+++ b/doc/XXL-HEX架构图.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="460" windowWidth="28800" windowHeight="15960" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="XXL-HEX架构图" sheetId="1" r:id="rId1"/>
@@ -1136,7 +1136,39 @@
               <a:ea typeface="STSong" charset="-122"/>
               <a:cs typeface="STSong" charset="-122"/>
             </a:rPr>
-            <a:t>+</a:t>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1" baseline="0">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" baseline="0">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>byte[]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1" baseline="0">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" baseline="0">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
@@ -1232,7 +1264,39 @@
               <a:ea typeface="STSong" charset="-122"/>
               <a:cs typeface="STSong" charset="-122"/>
             </a:rPr>
-            <a:t>http</a:t>
+            <a:t>remote</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>(hex)</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
             <a:latin typeface="STSong" charset="-122"/>
@@ -1321,27 +1385,8 @@
               <a:ea typeface="STSong" charset="-122"/>
               <a:cs typeface="STSong" charset="-122"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="STSong" charset="-122"/>
-              <a:ea typeface="STSong" charset="-122"/>
-              <a:cs typeface="STSong" charset="-122"/>
-            </a:rPr>
-            <a:t>消息体结构</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="STSong" charset="-122"/>
-            <a:ea typeface="STSong" charset="-122"/>
-            <a:cs typeface="STSong" charset="-122"/>
-          </a:endParaRPr>
+            <a:t> 消息体结构</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1645,15 +1690,7 @@
               <a:ea typeface="STSong" charset="-122"/>
               <a:cs typeface="STSong" charset="-122"/>
             </a:rPr>
-            <a:t>消息 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
-              <a:latin typeface="STSong" charset="-122"/>
-              <a:ea typeface="STSong" charset="-122"/>
-              <a:cs typeface="STSong" charset="-122"/>
-            </a:rPr>
-            <a:t>转 </a:t>
+            <a:t>消息 转 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
@@ -1812,11 +1849,6 @@
             </a:rPr>
             <a:t>字节）</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
-            <a:latin typeface="STSong" charset="-122"/>
-            <a:ea typeface="STSong" charset="-122"/>
-            <a:cs typeface="STSong" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2117,11 +2149,6 @@
             </a:rPr>
             <a:t>业务代码中，消息存在形式</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
-            <a:latin typeface="STSong" charset="-122"/>
-            <a:ea typeface="STSong" charset="-122"/>
-            <a:cs typeface="STSong" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2178,11 +2205,6 @@
             </a:rPr>
             <a:t>底层消息编解码以及序列化时，消息中间格式</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
-            <a:latin typeface="STSong" charset="-122"/>
-            <a:ea typeface="STSong" charset="-122"/>
-            <a:cs typeface="STSong" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2338,11 +2360,6 @@
             </a:rPr>
             <a:t>网络传输时，消息存在形式</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
-            <a:latin typeface="STSong" charset="-122"/>
-            <a:ea typeface="STSong" charset="-122"/>
-            <a:cs typeface="STSong" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4647,7 +4664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
@@ -4664,7 +4681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
